--- a/Datensets_Suche_Test_neu.xlsx
+++ b/Datensets_Suche_Test_neu.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="296">
   <si>
     <t>Sammlung der Deutschen Nationalbibliothek (Metadaten)</t>
   </si>
@@ -735,24 +735,12 @@
     <t xml:space="preserve">Deutsche Nationalbibliothek: Kunst, Architektur, Bauhaus 1918-1933 </t>
   </si>
   <si>
-    <t>Art des Inhalts</t>
-  </si>
-  <si>
-    <t>Datenformat</t>
-  </si>
-  <si>
     <t>Text+ Sammlungen</t>
   </si>
   <si>
     <t>Ja</t>
   </si>
   <si>
-    <t xml:space="preserve">Digitale Objekte </t>
-  </si>
-  <si>
-    <t>Online frei verfügbar</t>
-  </si>
-  <si>
     <t>Nein</t>
   </si>
   <si>
@@ -858,9 +846,6 @@
     <t>MARC21-xml</t>
   </si>
   <si>
-    <t>Datensätze zu…</t>
-  </si>
-  <si>
     <t xml:space="preserve">Zeitraum der Daten </t>
   </si>
   <si>
@@ -918,10 +903,19 @@
     <t>online frei verfügbar</t>
   </si>
   <si>
-    <t>Bezigsweg</t>
-  </si>
-  <si>
     <t>METS/MODS-xml</t>
+  </si>
+  <si>
+    <t>Bezugsweg</t>
+  </si>
+  <si>
+    <t>Metadatenformat</t>
+  </si>
+  <si>
+    <t>Volltext-Verfügbarkeit</t>
+  </si>
+  <si>
+    <t>Dateifomat</t>
   </si>
 </sst>
 </file>
@@ -1365,12 +1359,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1:M1048576"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -1378,2460 +1372,2240 @@
     <col min="1" max="1" width="76.125" style="32" customWidth="1"/>
     <col min="2" max="4" width="25.25" customWidth="1"/>
     <col min="5" max="5" width="19.375" customWidth="1"/>
-    <col min="6" max="6" width="20.875" customWidth="1"/>
-    <col min="7" max="7" width="27.25" customWidth="1"/>
-    <col min="8" max="8" width="31.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.625" customWidth="1"/>
-    <col min="10" max="10" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="41.5" customWidth="1"/>
+    <col min="6" max="6" width="27.25" customWidth="1"/>
+    <col min="7" max="7" width="31.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.625" customWidth="1"/>
+    <col min="9" max="9" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="41.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>239</v>
+        <v>295</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>240</v>
+        <v>294</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>236</v>
+        <v>293</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>277</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>282</v>
+        <v>168</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="K1" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="J1" s="17" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="H2" s="18" t="s">
         <v>181</v>
       </c>
+      <c r="H2" s="16"/>
       <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="34" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J2" s="34" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="21" t="s">
         <v>225</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>276</v>
+        <v>271</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>274</v>
       </c>
       <c r="G3" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="H3" s="20"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="34" t="s">
         <v>279</v>
       </c>
-      <c r="H3" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="34" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="21" t="s">
         <v>226</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E4" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="F4" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>276</v>
-      </c>
       <c r="G4" s="19" t="s">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="I4" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="J4" s="19"/>
-      <c r="K4" s="34" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="I4" s="19"/>
+      <c r="J4" s="34" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A5" s="21" t="s">
         <v>189</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="H5" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="G5" s="19" t="s">
         <v>170</v>
       </c>
+      <c r="H5" s="19"/>
       <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="24" t="s">
+      <c r="J5" s="24" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="21" t="s">
         <v>221</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D6" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="F6" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="E6" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>276</v>
-      </c>
       <c r="G6" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="34" t="s">
         <v>279</v>
       </c>
-      <c r="H6" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="34" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="21" t="s">
         <v>222</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E7" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="F7" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="F7" s="18" t="s">
-        <v>276</v>
-      </c>
       <c r="G7" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="H7" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="J7" s="19"/>
-      <c r="K7" s="34" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I7" s="19"/>
+      <c r="J7" s="34" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="21" t="s">
         <v>223</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="H8" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="G8" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="J8" s="19"/>
-      <c r="K8" s="34" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I8" s="19"/>
+      <c r="J8" s="34" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="21" t="s">
         <v>224</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D9" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="E9" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>276</v>
-      </c>
       <c r="G9" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="I9" s="19"/>
+      <c r="J9" s="34" t="s">
         <v>279</v>
       </c>
-      <c r="H9" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="J9" s="19"/>
-      <c r="K9" s="34" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A10" s="21" t="s">
         <v>227</v>
       </c>
       <c r="B10" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="I10" s="20"/>
+      <c r="J10" s="25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>295</v>
-      </c>
-      <c r="D10" s="18" t="s">
+      <c r="D11" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="F12" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="G12" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="J12" s="34" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="F13" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="G13" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="J13" s="34" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="J14" s="34" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="J15" s="34" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="J16" s="34" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="J17" s="34" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="J18" s="34" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="J19" s="34" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="J20" s="34" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="J21" s="34" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="H22" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="G10" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="J10" s="20"/>
-      <c r="K10" s="25" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="D11" s="18" t="s">
+      <c r="I22" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="J22" s="34" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="J23" s="34" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="F24" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="G24" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="J24" s="34" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="F25" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="G25" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="H25" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="G11" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="K11" s="24" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="D12" s="18" t="s">
+      <c r="I25" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="J25" s="34" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="J26" s="34" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="F27" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="G27" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="J27" s="34" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="F28" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="G28" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="H28" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="I28" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="J28" s="34" t="s">
         <v>279</v>
       </c>
-      <c r="H12" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="K12" s="34" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="D13" s="18" t="s">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="J29" s="34" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A30" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="F30" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="G30" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="I30" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="J30" s="34" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="F31" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="G31" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="H31" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="G13" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="I13" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="K13" s="34" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="F14" s="18" t="s">
+      <c r="I31" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="J31" s="34" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A32" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="H32" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="G14" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="I14" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="K14" s="34" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="G15" s="19" t="s">
+      <c r="I32" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="J32" s="34" t="s">
         <v>279</v>
       </c>
-      <c r="H15" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="I15" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="J15" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="K15" s="34" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="I16" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="J16" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="K16" s="34" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="27" t="s">
-        <v>248</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="H17" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="I17" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="J17" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="K17" s="34" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18" s="27" t="s">
-        <v>249</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="H18" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="I18" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="K18" s="34" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A19" s="27" t="s">
-        <v>250</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="H19" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="I19" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="J19" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="K19" s="34" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A20" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="I20" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="J20" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="K20" s="34" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A21" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="H21" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="I21" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="J21" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="K21" s="34" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A22" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="H22" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="I22" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="J22" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="K22" s="34" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A23" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="I23" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="J23" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="K23" s="34" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A24" s="28" t="s">
-        <v>255</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="I24" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="J24" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="K24" s="34" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A25" s="28" t="s">
-        <v>256</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="H25" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="I25" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="J25" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="K25" s="34" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A26" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="I26" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="J26" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="K26" s="34" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A27" s="28" t="s">
-        <v>258</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="H27" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="I27" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="J27" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="K27" s="34" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A28" s="28" t="s">
-        <v>259</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="H28" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="I28" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="J28" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="K28" s="34" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A29" s="28" t="s">
-        <v>260</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="G29" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="H29" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="I29" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="K29" s="34" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A30" s="28" t="s">
-        <v>261</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="F30" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="H30" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="I30" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="J30" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="K30" s="34" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A31" s="28" t="s">
-        <v>262</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="F31" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="G31" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="H31" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="I31" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="J31" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="K31" s="34" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A32" s="28" t="s">
-        <v>263</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="F32" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="G32" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="H32" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="I32" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="J32" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="K32" s="34" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="22.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:10" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A33" s="21" t="s">
         <v>228</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D33" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="F33" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="G33" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="J33" s="24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A34" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="F34" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="F33" s="18" t="s">
+      <c r="G34" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="H34" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="G33" s="19" t="s">
+      <c r="I34" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="J34" s="34" t="s">
         <v>279</v>
       </c>
-      <c r="H33" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="I33" s="21" t="s">
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A35" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="B35" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="J33" s="19" t="s">
+      <c r="C35" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="H35" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="I35" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="K33" s="24" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="29" t="s">
+      <c r="J35" s="34" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A36" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="I36" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="J36" s="34" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A37" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="I37" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="J37" s="34" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A38" s="29" t="s">
         <v>264</v>
       </c>
-      <c r="B34" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="D34" s="18" t="s">
+      <c r="B38" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="I38" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="J38" s="34" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A39" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="F39" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="G39" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="H39" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="I39" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="J39" s="34" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A40" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="F40" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="F34" s="18" t="s">
+      <c r="G40" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="H40" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="G34" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="H34" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="I34" s="21" t="s">
+      <c r="I40" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="J40" s="34" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A41" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="B41" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="J34" s="19" t="s">
+      <c r="C41" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="H41" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="I41" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="K34" s="34" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="D35" s="18" t="s">
+      <c r="J41" s="34" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A42" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="F42" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="G42" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="H42" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="I42" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="J42" s="34" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A43" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="F43" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="F35" s="18" t="s">
+      <c r="G43" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="H43" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="G35" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="H35" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="I35" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="J35" s="19" t="s">
+      <c r="I43" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="K35" s="34" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A36" s="29" t="s">
-        <v>266</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="E36" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="F36" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="G36" s="19" t="s">
+      <c r="J43" s="34" t="s">
         <v>279</v>
       </c>
-      <c r="H36" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="I36" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="J36" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="K36" s="34" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A37" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="F37" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="G37" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="H37" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="I37" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="J37" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="K37" s="34" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A38" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="E38" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="F38" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="G38" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="H38" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="I38" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="J38" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="K38" s="34" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A39" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="F39" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="G39" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="H39" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="I39" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="J39" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="K39" s="34" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A40" s="29" t="s">
-        <v>270</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="E40" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="F40" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="G40" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="H40" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="I40" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="J40" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="K40" s="34" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A41" s="29" t="s">
-        <v>271</v>
-      </c>
-      <c r="B41" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="E41" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="F41" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="G41" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="H41" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="I41" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="J41" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="K41" s="34" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A42" s="29" t="s">
-        <v>272</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="E42" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="F42" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="G42" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="H42" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="I42" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="J42" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="K42" s="34" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A43" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="E43" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="F43" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="G43" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="H43" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="I43" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="J43" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="K43" s="34" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="22.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="44" spans="1:10" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A44" s="21" t="s">
         <v>229</v>
       </c>
       <c r="B44" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="C44" s="18" t="s">
         <v>290</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>295</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>65</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="G44" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="H44" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="G44" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="I44" s="19" t="s">
+      <c r="H44" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="J44" s="21"/>
-      <c r="K44" s="24" t="s">
+      <c r="I44" s="21"/>
+      <c r="J44" s="24" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A45" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B45" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="C45" s="18" t="s">
         <v>290</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>295</v>
       </c>
       <c r="D45" s="18" t="s">
         <v>65</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="F45" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="G45" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="H45" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="G45" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="I45" s="19" t="s">
+      <c r="H45" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="J45" s="21"/>
-      <c r="K45" s="24" t="s">
+      <c r="I45" s="21"/>
+      <c r="J45" s="24" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A46" s="21" t="s">
         <v>231</v>
       </c>
       <c r="B46" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="C46" s="18" t="s">
         <v>290</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>295</v>
       </c>
       <c r="D46" s="18" t="s">
         <v>65</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="F46" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="G46" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="H46" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="G46" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="I46" s="19" t="s">
+      <c r="H46" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="J46" s="21"/>
-      <c r="K46" s="24" t="s">
+      <c r="I46" s="21"/>
+      <c r="J46" s="24" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A47" s="21" t="s">
         <v>232</v>
       </c>
       <c r="B47" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="C47" s="18" t="s">
         <v>290</v>
-      </c>
-      <c r="C47" s="18" t="s">
-        <v>295</v>
       </c>
       <c r="D47" s="18" t="s">
         <v>65</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="G47" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="H47" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="G47" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="I47" s="19" t="s">
+      <c r="H47" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="J47" s="21"/>
-      <c r="K47" s="24" t="s">
+      <c r="I47" s="21"/>
+      <c r="J47" s="24" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="21" t="s">
         <v>233</v>
       </c>
       <c r="B48" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="C48" s="18" t="s">
         <v>290</v>
-      </c>
-      <c r="C48" s="18" t="s">
-        <v>295</v>
       </c>
       <c r="D48" s="18" t="s">
         <v>67</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="F48" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="G48" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="H48" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="G48" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="I48" s="19" t="s">
+      <c r="H48" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="J48" s="21"/>
-      <c r="K48" s="24" t="s">
+      <c r="I48" s="21"/>
+      <c r="J48" s="24" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A49" s="21" t="s">
         <v>234</v>
       </c>
       <c r="B49" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="C49" s="18" t="s">
         <v>290</v>
-      </c>
-      <c r="C49" s="18" t="s">
-        <v>295</v>
       </c>
       <c r="D49" s="18" t="s">
         <v>65</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="F49" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="G49" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="H49" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="F49" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="G49" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="I49" s="19" t="s">
+      <c r="H49" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="J49" s="21"/>
-      <c r="K49" s="24" t="s">
+      <c r="I49" s="21"/>
+      <c r="J49" s="24" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A50" s="21" t="s">
         <v>214</v>
       </c>
       <c r="B50" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="C50" s="18" t="s">
         <v>290</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>295</v>
       </c>
       <c r="D50" s="18" t="s">
         <v>65</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="G50" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="H50" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="G50" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="I50" s="19" t="s">
+      <c r="H50" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="J50" s="21"/>
-      <c r="K50" s="24" t="s">
+      <c r="I50" s="21"/>
+      <c r="J50" s="24" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" s="21" t="s">
         <v>45</v>
       </c>
       <c r="B51" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="C51" s="18" t="s">
         <v>290</v>
-      </c>
-      <c r="C51" s="18" t="s">
-        <v>295</v>
       </c>
       <c r="D51" s="18" t="s">
         <v>65</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="F51" s="18" t="s">
-        <v>276</v>
+        <v>271</v>
+      </c>
+      <c r="F51" s="19" t="s">
+        <v>274</v>
       </c>
       <c r="G51" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="H51" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="I51" s="19"/>
+      <c r="J51" s="34" t="s">
         <v>279</v>
       </c>
-      <c r="H51" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="I51" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="J51" s="19"/>
-      <c r="K51" s="34" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" s="21" t="s">
         <v>46</v>
       </c>
       <c r="B52" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="C52" s="18" t="s">
         <v>290</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>295</v>
       </c>
       <c r="D52" s="19" t="s">
         <v>67</v>
       </c>
       <c r="E52" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="F52" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="F52" s="18" t="s">
-        <v>276</v>
-      </c>
       <c r="G52" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="H52" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="I52" s="21" t="s">
+      <c r="H52" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="J52" s="19"/>
-      <c r="K52" s="34" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I52" s="19"/>
+      <c r="J52" s="34" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" s="30" t="s">
         <v>47</v>
       </c>
       <c r="B53" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="C53" s="18" t="s">
         <v>290</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>295</v>
       </c>
       <c r="D53" s="19" t="s">
         <v>67</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="G53" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="H53" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="G53" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="I53" s="21" t="s">
+      <c r="H53" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="J53" s="19"/>
-      <c r="K53" s="34" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="I53" s="19"/>
+      <c r="J53" s="34" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A54" s="21" t="s">
         <v>48</v>
       </c>
       <c r="B54" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="C54" s="18" t="s">
         <v>290</v>
-      </c>
-      <c r="C54" s="18" t="s">
-        <v>295</v>
       </c>
       <c r="D54" s="18" t="s">
         <v>65</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="F54" s="18" t="s">
-        <v>276</v>
+        <v>291</v>
+      </c>
+      <c r="F54" s="19" t="s">
+        <v>274</v>
       </c>
       <c r="G54" s="19" t="s">
-        <v>279</v>
+        <v>185</v>
       </c>
       <c r="H54" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="I54" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="J54" s="19"/>
-      <c r="K54" s="24" t="s">
+      <c r="I54" s="19"/>
+      <c r="J54" s="24" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A55" s="21" t="s">
         <v>49</v>
       </c>
       <c r="B55" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="C55" s="18" t="s">
         <v>290</v>
-      </c>
-      <c r="C55" s="18" t="s">
-        <v>295</v>
       </c>
       <c r="D55" s="19" t="s">
         <v>67</v>
       </c>
       <c r="E55" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="F55" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="F55" s="18" t="s">
-        <v>276</v>
-      </c>
       <c r="G55" s="19" t="s">
-        <v>280</v>
+        <v>185</v>
       </c>
       <c r="H55" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="I55" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="J55" s="19"/>
-      <c r="K55" s="24" t="s">
+      <c r="I55" s="19"/>
+      <c r="J55" s="24" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="45" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10" ht="45" x14ac:dyDescent="0.15">
       <c r="A56" s="21" t="s">
         <v>50</v>
       </c>
       <c r="B56" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="C56" s="18" t="s">
         <v>290</v>
-      </c>
-      <c r="C56" s="18" t="s">
-        <v>295</v>
       </c>
       <c r="D56" s="19" t="s">
         <v>67</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="G56" s="18" t="s">
-        <v>278</v>
+        <v>273</v>
+      </c>
+      <c r="G56" s="19" t="s">
+        <v>185</v>
       </c>
       <c r="H56" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="I56" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="J56" s="19"/>
-      <c r="K56" s="24" t="s">
+      <c r="I56" s="19"/>
+      <c r="J56" s="24" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A57" s="21" t="s">
         <v>51</v>
       </c>
       <c r="B57" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="C57" s="18" t="s">
         <v>290</v>
-      </c>
-      <c r="C57" s="18" t="s">
-        <v>295</v>
       </c>
       <c r="D57" s="19" t="s">
         <v>65</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="F57" s="18" t="s">
-        <v>276</v>
+        <v>291</v>
+      </c>
+      <c r="F57" s="19" t="s">
+        <v>274</v>
       </c>
       <c r="G57" s="19" t="s">
-        <v>279</v>
+        <v>185</v>
       </c>
       <c r="H57" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="I57" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="J57" s="19"/>
-      <c r="K57" s="24" t="s">
+      <c r="I57" s="19"/>
+      <c r="J57" s="24" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A58" s="21" t="s">
         <v>52</v>
       </c>
       <c r="B58" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="C58" s="18" t="s">
         <v>290</v>
-      </c>
-      <c r="C58" s="18" t="s">
-        <v>295</v>
       </c>
       <c r="D58" s="19" t="s">
         <v>67</v>
       </c>
       <c r="E58" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="F58" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="F58" s="18" t="s">
-        <v>276</v>
-      </c>
       <c r="G58" s="19" t="s">
-        <v>280</v>
+        <v>185</v>
       </c>
       <c r="H58" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="I58" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="J58" s="19"/>
-      <c r="K58" s="26" t="s">
+      <c r="I58" s="19"/>
+      <c r="J58" s="26" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" s="21" t="s">
         <v>53</v>
       </c>
       <c r="B59" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="C59" s="18" t="s">
         <v>290</v>
-      </c>
-      <c r="C59" s="18" t="s">
-        <v>295</v>
       </c>
       <c r="D59" s="19" t="s">
         <v>65</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="G59" s="18" t="s">
-        <v>278</v>
+        <v>273</v>
+      </c>
+      <c r="G59" s="19" t="s">
+        <v>185</v>
       </c>
       <c r="H59" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="I59" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="J59" s="19"/>
-      <c r="K59" s="20" t="s">
+      <c r="I59" s="19"/>
+      <c r="J59" s="20" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="45" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10" ht="45" x14ac:dyDescent="0.15">
       <c r="A60" s="21" t="s">
         <v>54</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D60" s="19" t="s">
         <v>67</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="F60" s="18" t="s">
-        <v>276</v>
+        <v>271</v>
+      </c>
+      <c r="F60" s="19" t="s">
+        <v>274</v>
       </c>
       <c r="G60" s="19" t="s">
-        <v>279</v>
+        <v>185</v>
       </c>
       <c r="H60" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="I60" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="J60" s="19"/>
-      <c r="K60" s="24" t="s">
+      <c r="I60" s="19"/>
+      <c r="J60" s="24" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:10" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A61" s="21" t="s">
         <v>55</v>
       </c>
       <c r="B61" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="C61" s="18" t="s">
         <v>290</v>
-      </c>
-      <c r="C61" s="18" t="s">
-        <v>295</v>
       </c>
       <c r="D61" s="19" t="s">
         <v>65</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="F61" s="18" t="s">
-        <v>276</v>
+        <v>291</v>
+      </c>
+      <c r="F61" s="19" t="s">
+        <v>275</v>
       </c>
       <c r="G61" s="19" t="s">
-        <v>280</v>
+        <v>185</v>
       </c>
       <c r="H61" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="I61" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="J61" s="19"/>
-      <c r="K61" s="24" t="s">
+      <c r="I61" s="19"/>
+      <c r="J61" s="24" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="45" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10" ht="45" x14ac:dyDescent="0.15">
       <c r="A62" s="21" t="s">
         <v>56</v>
       </c>
       <c r="B62" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="C62" s="18" t="s">
         <v>290</v>
-      </c>
-      <c r="C62" s="18" t="s">
-        <v>295</v>
       </c>
       <c r="D62" s="19" t="s">
         <v>65</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="G62" s="18" t="s">
-        <v>278</v>
+        <v>273</v>
+      </c>
+      <c r="G62" s="19" t="s">
+        <v>185</v>
       </c>
       <c r="H62" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="I62" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="J62" s="19"/>
-      <c r="K62" s="24" t="s">
+      <c r="I62" s="19"/>
+      <c r="J62" s="24" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:10" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A63" s="21" t="s">
         <v>57</v>
       </c>
       <c r="B63" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="C63" s="18" t="s">
         <v>290</v>
-      </c>
-      <c r="C63" s="18" t="s">
-        <v>295</v>
       </c>
       <c r="D63" s="19" t="s">
         <v>65</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="F63" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="G63" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="H63" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="F63" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="G63" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="I63" s="21"/>
-      <c r="J63" s="19"/>
-      <c r="K63" s="24" t="s">
+      <c r="H63" s="21"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="24" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:10" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A64" s="21" t="s">
         <v>58</v>
       </c>
       <c r="B64" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="C64" s="18" t="s">
         <v>290</v>
-      </c>
-      <c r="C64" s="18" t="s">
-        <v>295</v>
       </c>
       <c r="D64" s="19" t="s">
         <v>65</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="F64" s="18" t="s">
-        <v>276</v>
+        <v>291</v>
+      </c>
+      <c r="F64" s="19" t="s">
+        <v>275</v>
       </c>
       <c r="G64" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="H64" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="I64" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="H64" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="J64" s="19"/>
-      <c r="K64" s="24" t="s">
+      <c r="I64" s="19"/>
+      <c r="J64" s="24" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A65" s="30" t="s">
         <v>59</v>
       </c>
       <c r="B65" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="C65" s="18" t="s">
         <v>290</v>
-      </c>
-      <c r="C65" s="18" t="s">
-        <v>295</v>
       </c>
       <c r="D65" s="19" t="s">
         <v>65</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="G65" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="H65" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="G65" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="I65" s="35"/>
-      <c r="J65" s="23"/>
-      <c r="K65" s="19" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="H65" s="35"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="19" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A66" s="31" t="s">
         <v>144</v>
       </c>
       <c r="B66" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="C66" s="18" t="s">
         <v>290</v>
-      </c>
-      <c r="C66" s="18" t="s">
-        <v>295</v>
       </c>
       <c r="D66" s="19" t="s">
         <v>65</v>
       </c>
       <c r="E66" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="F66" s="18" t="s">
-        <v>276</v>
+        <v>291</v>
+      </c>
+      <c r="F66" s="19" t="s">
+        <v>274</v>
       </c>
       <c r="G66" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="H66" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="I66" s="21" t="s">
+      <c r="H66" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="J66" s="19"/>
-      <c r="K66" s="24" t="s">
+      <c r="I66" s="19"/>
+      <c r="J66" s="24" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:10" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A67" s="31" t="s">
         <v>135</v>
       </c>
       <c r="B67" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="C67" s="18" t="s">
         <v>290</v>
-      </c>
-      <c r="C67" s="18" t="s">
-        <v>295</v>
       </c>
       <c r="D67" s="19" t="s">
         <v>65</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="F67" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="G67" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="H67" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="F67" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="G67" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="I67" s="21"/>
-      <c r="J67" s="19"/>
-      <c r="K67" s="24" t="s">
+      <c r="H67" s="21"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="24" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:10" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A68" s="31" t="s">
         <v>138</v>
       </c>
       <c r="B68" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="C68" s="18" t="s">
         <v>290</v>
-      </c>
-      <c r="C68" s="18" t="s">
-        <v>295</v>
       </c>
       <c r="D68" s="19" t="s">
         <v>65</v>
       </c>
       <c r="E68" s="19" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="G68" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="H68" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="G68" s="21" t="s">
         <v>175</v>
       </c>
+      <c r="H68" s="21"/>
       <c r="I68" s="21"/>
-      <c r="J68" s="21"/>
-      <c r="K68" s="24" t="s">
+      <c r="J68" s="24" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A69" s="31" t="s">
         <v>143</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D69" s="20" t="s">
         <v>67</v>
       </c>
       <c r="E69" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="F69" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="G69" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="H69" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="F69" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="G69" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="I69" s="21" t="s">
+      <c r="H69" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="J69" s="20"/>
-      <c r="K69" s="20" t="s">
+      <c r="I69" s="20"/>
+      <c r="J69" s="20" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="45" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:10" ht="45" x14ac:dyDescent="0.15">
       <c r="A70" s="31" t="s">
         <v>139</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D70" s="20" t="s">
         <v>67</v>
       </c>
       <c r="E70" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="F70" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="F70" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="G70" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="H70" s="20" t="s">
+      <c r="G70" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="I70" s="21" t="s">
+      <c r="H70" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="J70" s="20"/>
-      <c r="K70" s="24" t="s">
+      <c r="I70" s="20"/>
+      <c r="J70" s="24" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:10" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A71" s="31" t="s">
         <v>140</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D71" s="20" t="s">
         <v>67</v>
       </c>
       <c r="E71" s="20" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="G71" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="H71" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="G71" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="I71" s="21" t="s">
+      <c r="H71" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="J71" s="20"/>
-      <c r="K71" s="24" t="s">
+      <c r="I71" s="20"/>
+      <c r="J71" s="24" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:10" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A72" s="31" t="s">
         <v>141</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D72" s="20" t="s">
         <v>67</v>
       </c>
       <c r="E72" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="F72" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="G72" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="H72" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="F72" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="G72" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="I72" s="21" t="s">
+      <c r="H72" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="J72" s="20"/>
-      <c r="K72" s="24" t="s">
+      <c r="I72" s="20"/>
+      <c r="J72" s="24" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A73" s="31" t="s">
         <v>142</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D73" s="20" t="s">
         <v>67</v>
       </c>
       <c r="E73" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="F73" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="F73" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="G73" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="H73" s="20" t="s">
+      <c r="G73" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="I73" s="21" t="s">
+      <c r="H73" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="J73" s="20"/>
-      <c r="K73" s="24" t="s">
+      <c r="I73" s="20"/>
+      <c r="J73" s="24" t="s">
         <v>219</v>
       </c>
     </row>

--- a/Datensets_Suche_Test_neu.xlsx
+++ b/Datensets_Suche_Test_neu.xlsx
@@ -915,7 +915,7 @@
     <t>Volltext-Verfügbarkeit</t>
   </si>
   <si>
-    <t>Dateifomat</t>
+    <t>Dateiformat</t>
   </si>
 </sst>
 </file>
@@ -1361,7 +1361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>

--- a/Datensets_Suche_Test_neu.xlsx
+++ b/Datensets_Suche_Test_neu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18315" windowHeight="11685"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle2" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="294">
   <si>
     <t>Sammlung der Deutschen Nationalbibliothek (Metadaten)</t>
   </si>
@@ -736,12 +736,6 @@
   </si>
   <si>
     <t>Text+ Sammlungen</t>
-  </si>
-  <si>
-    <t>Ja</t>
-  </si>
-  <si>
-    <t>Nein</t>
   </si>
   <si>
     <t>Hochschulschriften (HSS)</t>
@@ -1361,10 +1355,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -1381,31 +1375,31 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H1" s="16" t="s">
         <v>168</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J1" s="17" t="s">
         <v>187</v>
@@ -1416,16 +1410,16 @@
         <v>235</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="E2" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="F2" s="18" t="s">
         <v>271</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>273</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>181</v>
@@ -1433,7 +1427,7 @@
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
       <c r="J2" s="34" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
@@ -1441,19 +1435,19 @@
         <v>225</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>172</v>
@@ -1461,7 +1455,7 @@
       <c r="H3" s="20"/>
       <c r="I3" s="19"/>
       <c r="J3" s="34" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -1469,19 +1463,19 @@
         <v>226</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>220</v>
@@ -1491,7 +1485,7 @@
       </c>
       <c r="I4" s="19"/>
       <c r="J4" s="34" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="22.5" x14ac:dyDescent="0.15">
@@ -1499,19 +1493,19 @@
         <v>189</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E5" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>271</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>273</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>170</v>
@@ -1527,19 +1521,19 @@
         <v>221</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>220</v>
@@ -1547,7 +1541,7 @@
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
       <c r="J6" s="34" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -1555,26 +1549,26 @@
         <v>222</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>170</v>
       </c>
       <c r="I7" s="19"/>
       <c r="J7" s="34" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -1582,26 +1576,26 @@
         <v>223</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E8" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="F8" s="18" t="s">
         <v>271</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>273</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>170</v>
       </c>
       <c r="I8" s="19"/>
       <c r="J8" s="34" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -1609,26 +1603,26 @@
         <v>224</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>170</v>
       </c>
       <c r="I9" s="19"/>
       <c r="J9" s="34" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
@@ -1636,19 +1630,19 @@
         <v>227</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>174</v>
@@ -1663,22 +1657,22 @@
     </row>
     <row r="11" spans="1:10" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A11" s="21" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E11" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="F11" s="18" t="s">
         <v>271</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>273</v>
       </c>
       <c r="G11" s="21" t="s">
         <v>165</v>
@@ -1695,22 +1689,22 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="27" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G12" s="21" t="s">
         <v>165</v>
@@ -1722,27 +1716,27 @@
         <v>172</v>
       </c>
       <c r="J12" s="34" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="27" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G13" s="21" t="s">
         <v>165</v>
@@ -1754,27 +1748,27 @@
         <v>172</v>
       </c>
       <c r="J13" s="34" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="27" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E14" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="F14" s="18" t="s">
         <v>271</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>273</v>
       </c>
       <c r="G14" s="21" t="s">
         <v>165</v>
@@ -1786,27 +1780,27 @@
         <v>172</v>
       </c>
       <c r="J14" s="34" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="27" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G15" s="21" t="s">
         <v>165</v>
@@ -1818,27 +1812,27 @@
         <v>172</v>
       </c>
       <c r="J15" s="34" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="27" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G16" s="21" t="s">
         <v>165</v>
@@ -1850,27 +1844,27 @@
         <v>172</v>
       </c>
       <c r="J16" s="34" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="27" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E17" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="F17" s="18" t="s">
         <v>271</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>273</v>
       </c>
       <c r="G17" s="21" t="s">
         <v>165</v>
@@ -1882,27 +1876,27 @@
         <v>172</v>
       </c>
       <c r="J17" s="34" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="27" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G18" s="21" t="s">
         <v>165</v>
@@ -1914,27 +1908,27 @@
         <v>172</v>
       </c>
       <c r="J18" s="34" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="27" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G19" s="21" t="s">
         <v>165</v>
@@ -1946,27 +1940,27 @@
         <v>172</v>
       </c>
       <c r="J19" s="34" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="27" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E20" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="F20" s="18" t="s">
         <v>271</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>273</v>
       </c>
       <c r="G20" s="21" t="s">
         <v>165</v>
@@ -1978,27 +1972,27 @@
         <v>172</v>
       </c>
       <c r="J20" s="34" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="27" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G21" s="21" t="s">
         <v>165</v>
@@ -2010,359 +2004,359 @@
         <v>172</v>
       </c>
       <c r="J21" s="34" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="21" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G22" s="21" t="s">
         <v>165</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I22" s="19" t="s">
         <v>173</v>
       </c>
       <c r="J22" s="34" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="28" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E23" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="F23" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="F23" s="18" t="s">
-        <v>273</v>
-      </c>
       <c r="G23" s="21" t="s">
         <v>165</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I23" s="19" t="s">
         <v>173</v>
       </c>
       <c r="J23" s="34" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="28" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F24" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="H24" s="21" t="s">
         <v>274</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>276</v>
       </c>
       <c r="I24" s="19" t="s">
         <v>173</v>
       </c>
       <c r="J24" s="34" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="28" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G25" s="21" t="s">
         <v>165</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I25" s="19" t="s">
         <v>173</v>
       </c>
       <c r="J25" s="34" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="28" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E26" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="F26" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="F26" s="18" t="s">
-        <v>273</v>
-      </c>
       <c r="G26" s="21" t="s">
         <v>165</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I26" s="19" t="s">
         <v>173</v>
       </c>
       <c r="J26" s="34" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="28" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F27" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="H27" s="21" t="s">
         <v>274</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="H27" s="21" t="s">
-        <v>276</v>
       </c>
       <c r="I27" s="19" t="s">
         <v>173</v>
       </c>
       <c r="J27" s="34" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="28" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G28" s="21" t="s">
         <v>165</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I28" s="19" t="s">
         <v>173</v>
       </c>
       <c r="J28" s="34" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="28" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E29" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="F29" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="F29" s="18" t="s">
-        <v>273</v>
-      </c>
       <c r="G29" s="21" t="s">
         <v>165</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I29" s="19" t="s">
         <v>173</v>
       </c>
       <c r="J29" s="34" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="28" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F30" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="H30" s="21" t="s">
         <v>274</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="H30" s="21" t="s">
-        <v>276</v>
       </c>
       <c r="I30" s="19" t="s">
         <v>173</v>
       </c>
       <c r="J30" s="34" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="28" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G31" s="21" t="s">
         <v>165</v>
       </c>
       <c r="H31" s="21" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I31" s="19" t="s">
         <v>173</v>
       </c>
       <c r="J31" s="34" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="28" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E32" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="F32" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="F32" s="18" t="s">
-        <v>273</v>
-      </c>
       <c r="G32" s="21" t="s">
         <v>165</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I32" s="19" t="s">
         <v>173</v>
       </c>
       <c r="J32" s="34" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="22.5" x14ac:dyDescent="0.15">
@@ -2370,25 +2364,25 @@
         <v>228</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F33" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="H33" s="21" t="s">
         <v>274</v>
-      </c>
-      <c r="G33" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="H33" s="21" t="s">
-        <v>276</v>
       </c>
       <c r="I33" s="19" t="s">
         <v>170</v>
@@ -2399,322 +2393,322 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="29" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G34" s="21" t="s">
         <v>165</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I34" s="19" t="s">
         <v>170</v>
       </c>
       <c r="J34" s="34" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="29" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E35" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="F35" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="F35" s="18" t="s">
-        <v>273</v>
-      </c>
       <c r="G35" s="21" t="s">
         <v>165</v>
       </c>
       <c r="H35" s="21" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I35" s="19" t="s">
         <v>170</v>
       </c>
       <c r="J35" s="34" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="29" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F36" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="H36" s="21" t="s">
         <v>274</v>
-      </c>
-      <c r="G36" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="H36" s="21" t="s">
-        <v>276</v>
       </c>
       <c r="I36" s="19" t="s">
         <v>170</v>
       </c>
       <c r="J36" s="34" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="29" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G37" s="21" t="s">
         <v>165</v>
       </c>
       <c r="H37" s="21" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I37" s="19" t="s">
         <v>170</v>
       </c>
       <c r="J37" s="34" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="29" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E38" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="F38" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="F38" s="18" t="s">
-        <v>273</v>
-      </c>
       <c r="G38" s="21" t="s">
         <v>165</v>
       </c>
       <c r="H38" s="21" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I38" s="19" t="s">
         <v>170</v>
       </c>
       <c r="J38" s="34" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="29" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F39" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="H39" s="21" t="s">
         <v>274</v>
-      </c>
-      <c r="G39" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="H39" s="21" t="s">
-        <v>276</v>
       </c>
       <c r="I39" s="19" t="s">
         <v>170</v>
       </c>
       <c r="J39" s="34" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="29" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G40" s="21" t="s">
         <v>165</v>
       </c>
       <c r="H40" s="21" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I40" s="19" t="s">
         <v>170</v>
       </c>
       <c r="J40" s="34" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" s="29" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E41" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="F41" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="F41" s="18" t="s">
-        <v>273</v>
-      </c>
       <c r="G41" s="21" t="s">
         <v>165</v>
       </c>
       <c r="H41" s="21" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I41" s="19" t="s">
         <v>170</v>
       </c>
       <c r="J41" s="34" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="D42" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="B42" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>270</v>
-      </c>
       <c r="E42" s="22" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F42" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="G42" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="H42" s="21" t="s">
         <v>274</v>
-      </c>
-      <c r="G42" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="H42" s="21" t="s">
-        <v>276</v>
       </c>
       <c r="I42" s="19" t="s">
         <v>170</v>
       </c>
       <c r="J42" s="34" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" s="29" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G43" s="21" t="s">
         <v>165</v>
       </c>
       <c r="H43" s="21" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I43" s="19" t="s">
         <v>170</v>
       </c>
       <c r="J43" s="34" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="22.5" x14ac:dyDescent="0.15">
@@ -2722,19 +2716,19 @@
         <v>229</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>65</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G44" s="21" t="s">
         <v>175</v>
@@ -2752,19 +2746,19 @@
         <v>230</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D45" s="18" t="s">
         <v>65</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G45" s="21" t="s">
         <v>175</v>
@@ -2782,19 +2776,19 @@
         <v>231</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D46" s="18" t="s">
         <v>65</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G46" s="21" t="s">
         <v>175</v>
@@ -2812,19 +2806,19 @@
         <v>232</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D47" s="18" t="s">
         <v>65</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G47" s="21" t="s">
         <v>175</v>
@@ -2842,19 +2836,19 @@
         <v>233</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D48" s="18" t="s">
         <v>67</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G48" s="21" t="s">
         <v>175</v>
@@ -2872,19 +2866,19 @@
         <v>234</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D49" s="18" t="s">
         <v>65</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G49" s="21" t="s">
         <v>175</v>
@@ -2902,19 +2896,19 @@
         <v>214</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D50" s="18" t="s">
         <v>65</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G50" s="21" t="s">
         <v>175</v>
@@ -2932,19 +2926,19 @@
         <v>45</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D51" s="18" t="s">
         <v>65</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G51" s="19" t="s">
         <v>185</v>
@@ -2954,7 +2948,7 @@
       </c>
       <c r="I51" s="19"/>
       <c r="J51" s="34" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.15">
@@ -2962,19 +2956,19 @@
         <v>46</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D52" s="19" t="s">
         <v>67</v>
       </c>
       <c r="E52" s="22" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G52" s="19" t="s">
         <v>185</v>
@@ -2984,7 +2978,7 @@
       </c>
       <c r="I52" s="19"/>
       <c r="J52" s="34" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.15">
@@ -2992,19 +2986,19 @@
         <v>47</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D53" s="19" t="s">
         <v>67</v>
       </c>
       <c r="E53" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="F53" s="18" t="s">
         <v>271</v>
-      </c>
-      <c r="F53" s="18" t="s">
-        <v>273</v>
       </c>
       <c r="G53" s="19" t="s">
         <v>185</v>
@@ -3014,7 +3008,7 @@
       </c>
       <c r="I53" s="19"/>
       <c r="J53" s="34" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="33.75" x14ac:dyDescent="0.15">
@@ -3022,19 +3016,19 @@
         <v>48</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D54" s="18" t="s">
         <v>65</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G54" s="19" t="s">
         <v>185</v>
@@ -3052,19 +3046,19 @@
         <v>49</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D55" s="19" t="s">
         <v>67</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F55" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G55" s="19" t="s">
         <v>185</v>
@@ -3082,19 +3076,19 @@
         <v>50</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D56" s="19" t="s">
         <v>67</v>
       </c>
       <c r="E56" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="F56" s="18" t="s">
         <v>271</v>
-      </c>
-      <c r="F56" s="18" t="s">
-        <v>273</v>
       </c>
       <c r="G56" s="19" t="s">
         <v>185</v>
@@ -3112,19 +3106,19 @@
         <v>51</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D57" s="19" t="s">
         <v>65</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F57" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G57" s="19" t="s">
         <v>185</v>
@@ -3142,19 +3136,19 @@
         <v>52</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D58" s="19" t="s">
         <v>67</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F58" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G58" s="19" t="s">
         <v>185</v>
@@ -3172,19 +3166,19 @@
         <v>53</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D59" s="19" t="s">
         <v>65</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G59" s="19" t="s">
         <v>185</v>
@@ -3202,19 +3196,19 @@
         <v>54</v>
       </c>
       <c r="B60" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="C60" s="18" t="s">
         <v>288</v>
-      </c>
-      <c r="C60" s="18" t="s">
-        <v>290</v>
       </c>
       <c r="D60" s="19" t="s">
         <v>67</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F60" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G60" s="19" t="s">
         <v>185</v>
@@ -3232,19 +3226,19 @@
         <v>55</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D61" s="19" t="s">
         <v>65</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F61" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G61" s="19" t="s">
         <v>185</v>
@@ -3262,19 +3256,19 @@
         <v>56</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D62" s="19" t="s">
         <v>65</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G62" s="19" t="s">
         <v>185</v>
@@ -3292,19 +3286,19 @@
         <v>57</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D63" s="19" t="s">
         <v>65</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G63" s="21" t="s">
         <v>175</v>
@@ -3320,24 +3314,21 @@
         <v>58</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D64" s="19" t="s">
         <v>65</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F64" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="G64" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="H64" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="G64" s="21" t="s">
         <v>175</v>
       </c>
       <c r="I64" s="19"/>
@@ -3350,27 +3341,28 @@
         <v>59</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D65" s="19" t="s">
         <v>65</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G65" s="21" t="s">
         <v>176</v>
       </c>
       <c r="H65" s="35"/>
       <c r="I65" s="23"/>
-      <c r="J65" s="19" t="s">
-        <v>237</v>
+      <c r="J65" s="19">
+        <f ca="1">-J65</f>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="33.75" x14ac:dyDescent="0.15">
@@ -3378,19 +3370,19 @@
         <v>144</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D66" s="19" t="s">
         <v>65</v>
       </c>
       <c r="E66" s="19" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F66" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G66" s="19" t="s">
         <v>185</v>
@@ -3408,19 +3400,19 @@
         <v>135</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D67" s="19" t="s">
         <v>65</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F67" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G67" s="21" t="s">
         <v>175</v>
@@ -3436,19 +3428,19 @@
         <v>138</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D68" s="19" t="s">
         <v>65</v>
       </c>
       <c r="E68" s="19" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G68" s="21" t="s">
         <v>175</v>
@@ -3464,19 +3456,19 @@
         <v>143</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D69" s="20" t="s">
         <v>67</v>
       </c>
       <c r="E69" s="20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F69" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G69" s="20" t="s">
         <v>167</v>
@@ -3494,19 +3486,19 @@
         <v>139</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D70" s="20" t="s">
         <v>67</v>
       </c>
       <c r="E70" s="20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F70" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G70" s="20" t="s">
         <v>167</v>
@@ -3524,19 +3516,19 @@
         <v>140</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D71" s="20" t="s">
         <v>67</v>
       </c>
       <c r="E71" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="F71" s="18" t="s">
         <v>271</v>
-      </c>
-      <c r="F71" s="18" t="s">
-        <v>273</v>
       </c>
       <c r="G71" s="20" t="s">
         <v>167</v>
@@ -3554,19 +3546,19 @@
         <v>141</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D72" s="20" t="s">
         <v>67</v>
       </c>
       <c r="E72" s="20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G72" s="20" t="s">
         <v>167</v>
@@ -3584,19 +3576,19 @@
         <v>142</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D73" s="20" t="s">
         <v>67</v>
       </c>
       <c r="E73" s="20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F73" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G73" s="20" t="s">
         <v>167</v>

--- a/Datensets_Suche_Test_neu.xlsx
+++ b/Datensets_Suche_Test_neu.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="294">
   <si>
     <t>Sammlung der Deutschen Nationalbibliothek (Metadaten)</t>
   </si>
@@ -891,12 +891,6 @@
     <t>WAV, MP3, MP4</t>
   </si>
   <si>
-    <t>online frei verfügbar, rechtlich geschützt</t>
-  </si>
-  <si>
-    <t>online frei verfügbar</t>
-  </si>
-  <si>
     <t>METS/MODS-xml</t>
   </si>
   <si>
@@ -909,7 +903,13 @@
     <t>Volltext-Verfügbarkeit</t>
   </si>
   <si>
-    <t>Dateiformat</t>
+    <t>frei verfügbar, urheberrechtlich geschützt</t>
+  </si>
+  <si>
+    <t>frei verfügbar</t>
+  </si>
+  <si>
+    <t>Dateiformat der verlinkten Werke</t>
   </si>
 </sst>
 </file>
@@ -1355,16 +1355,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="J65" sqref="J65"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="76.125" style="32" customWidth="1"/>
-    <col min="2" max="4" width="25.25" customWidth="1"/>
+    <col min="2" max="2" width="49.875" customWidth="1"/>
+    <col min="3" max="3" width="34.375" customWidth="1"/>
+    <col min="4" max="4" width="25.25" customWidth="1"/>
     <col min="5" max="5" width="19.375" customWidth="1"/>
     <col min="6" max="6" width="27.25" customWidth="1"/>
     <col min="7" max="7" width="31.875" bestFit="1" customWidth="1"/>
@@ -1381,13 +1383,13 @@
         <v>293</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>270</v>
@@ -1409,8 +1411,11 @@
       <c r="A2" s="18" t="s">
         <v>235</v>
       </c>
+      <c r="B2" s="18" t="s">
+        <v>280</v>
+      </c>
       <c r="C2" s="18" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>268</v>
@@ -1438,7 +1443,7 @@
         <v>280</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>268</v>
@@ -1466,7 +1471,7 @@
         <v>280</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>268</v>
@@ -1496,7 +1501,7 @@
         <v>280</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>268</v>
@@ -1524,7 +1529,7 @@
         <v>280</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>268</v>
@@ -1552,7 +1557,7 @@
         <v>281</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>268</v>
@@ -1579,7 +1584,7 @@
         <v>281</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>268</v>
@@ -1606,7 +1611,7 @@
         <v>281</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>268</v>
@@ -1632,8 +1637,8 @@
       <c r="B10" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>288</v>
+      <c r="C10" s="18" t="s">
+        <v>292</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>268</v>
@@ -1663,7 +1668,7 @@
         <v>279</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>268</v>
@@ -1695,7 +1700,7 @@
         <v>279</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>268</v>
@@ -1727,7 +1732,7 @@
         <v>279</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>268</v>
@@ -1759,7 +1764,7 @@
         <v>279</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>268</v>
@@ -1791,7 +1796,7 @@
         <v>279</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>268</v>
@@ -1823,7 +1828,7 @@
         <v>279</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>268</v>
@@ -1855,7 +1860,7 @@
         <v>279</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>268</v>
@@ -1887,7 +1892,7 @@
         <v>279</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>268</v>
@@ -1919,7 +1924,7 @@
         <v>279</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>268</v>
@@ -1951,7 +1956,7 @@
         <v>279</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>268</v>
@@ -1983,7 +1988,7 @@
         <v>279</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>268</v>
@@ -2015,7 +2020,7 @@
         <v>279</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>268</v>
@@ -2047,7 +2052,7 @@
         <v>279</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>268</v>
@@ -2079,7 +2084,7 @@
         <v>279</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>268</v>
@@ -2111,7 +2116,7 @@
         <v>279</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>268</v>
@@ -2143,7 +2148,7 @@
         <v>279</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>268</v>
@@ -2175,7 +2180,7 @@
         <v>279</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>268</v>
@@ -2207,7 +2212,7 @@
         <v>279</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>268</v>
@@ -2239,7 +2244,7 @@
         <v>279</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>268</v>
@@ -2271,7 +2276,7 @@
         <v>279</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>268</v>
@@ -2303,7 +2308,7 @@
         <v>279</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>268</v>
@@ -2335,7 +2340,7 @@
         <v>279</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>268</v>
@@ -2367,7 +2372,7 @@
         <v>279</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>268</v>
@@ -2399,7 +2404,7 @@
         <v>279</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>268</v>
@@ -2431,7 +2436,7 @@
         <v>279</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>268</v>
@@ -2463,7 +2468,7 @@
         <v>279</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>268</v>
@@ -2495,7 +2500,7 @@
         <v>279</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>268</v>
@@ -2527,7 +2532,7 @@
         <v>279</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D38" s="18" t="s">
         <v>268</v>
@@ -2559,7 +2564,7 @@
         <v>279</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>268</v>
@@ -2591,7 +2596,7 @@
         <v>279</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>268</v>
@@ -2623,7 +2628,7 @@
         <v>279</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D41" s="18" t="s">
         <v>268</v>
@@ -2655,7 +2660,7 @@
         <v>279</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D42" s="18" t="s">
         <v>268</v>
@@ -2687,7 +2692,7 @@
         <v>279</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D43" s="18" t="s">
         <v>268</v>
@@ -2719,13 +2724,13 @@
         <v>283</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>65</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F44" s="18" t="s">
         <v>271</v>
@@ -2749,13 +2754,13 @@
         <v>283</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D45" s="18" t="s">
         <v>65</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F45" s="19" t="s">
         <v>272</v>
@@ -2779,13 +2784,13 @@
         <v>283</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D46" s="18" t="s">
         <v>65</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F46" s="19" t="s">
         <v>273</v>
@@ -2809,13 +2814,13 @@
         <v>283</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D47" s="18" t="s">
         <v>65</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F47" s="18" t="s">
         <v>271</v>
@@ -2839,7 +2844,7 @@
         <v>283</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D48" s="18" t="s">
         <v>67</v>
@@ -2869,13 +2874,13 @@
         <v>283</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D49" s="18" t="s">
         <v>65</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F49" s="19" t="s">
         <v>273</v>
@@ -2899,13 +2904,13 @@
         <v>283</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D50" s="18" t="s">
         <v>65</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F50" s="18" t="s">
         <v>271</v>
@@ -2929,7 +2934,7 @@
         <v>283</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D51" s="18" t="s">
         <v>65</v>
@@ -2959,7 +2964,7 @@
         <v>283</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D52" s="19" t="s">
         <v>67</v>
@@ -2989,7 +2994,7 @@
         <v>283</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D53" s="19" t="s">
         <v>67</v>
@@ -3019,13 +3024,13 @@
         <v>283</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D54" s="18" t="s">
         <v>65</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F54" s="19" t="s">
         <v>272</v>
@@ -3049,7 +3054,7 @@
         <v>283</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D55" s="19" t="s">
         <v>67</v>
@@ -3079,7 +3084,7 @@
         <v>283</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D56" s="19" t="s">
         <v>67</v>
@@ -3109,13 +3114,13 @@
         <v>283</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D57" s="19" t="s">
         <v>65</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F57" s="19" t="s">
         <v>272</v>
@@ -3139,7 +3144,7 @@
         <v>283</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D58" s="19" t="s">
         <v>67</v>
@@ -3169,13 +3174,13 @@
         <v>283</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D59" s="19" t="s">
         <v>65</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F59" s="18" t="s">
         <v>271</v>
@@ -3199,7 +3204,7 @@
         <v>286</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D60" s="19" t="s">
         <v>67</v>
@@ -3229,13 +3234,13 @@
         <v>283</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D61" s="19" t="s">
         <v>65</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F61" s="19" t="s">
         <v>273</v>
@@ -3259,13 +3264,13 @@
         <v>283</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D62" s="19" t="s">
         <v>65</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F62" s="18" t="s">
         <v>271</v>
@@ -3289,13 +3294,13 @@
         <v>283</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D63" s="19" t="s">
         <v>65</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F63" s="19" t="s">
         <v>272</v>
@@ -3317,13 +3322,13 @@
         <v>283</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D64" s="19" t="s">
         <v>65</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F64" s="19" t="s">
         <v>273</v>
@@ -3344,13 +3349,13 @@
         <v>283</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D65" s="19" t="s">
         <v>65</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F65" s="18" t="s">
         <v>271</v>
@@ -3373,13 +3378,13 @@
         <v>283</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D66" s="19" t="s">
         <v>65</v>
       </c>
       <c r="E66" s="19" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F66" s="19" t="s">
         <v>272</v>
@@ -3403,13 +3408,13 @@
         <v>283</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D67" s="19" t="s">
         <v>65</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F67" s="19" t="s">
         <v>273</v>
@@ -3431,13 +3436,13 @@
         <v>283</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D68" s="19" t="s">
         <v>65</v>
       </c>
       <c r="E68" s="19" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F68" s="18" t="s">
         <v>271</v>
@@ -3459,7 +3464,7 @@
         <v>284</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D69" s="20" t="s">
         <v>67</v>
@@ -3489,7 +3494,7 @@
         <v>285</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D70" s="20" t="s">
         <v>67</v>
@@ -3519,7 +3524,7 @@
         <v>285</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D71" s="20" t="s">
         <v>67</v>
@@ -3549,7 +3554,7 @@
         <v>285</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D72" s="20" t="s">
         <v>67</v>
@@ -3579,7 +3584,7 @@
         <v>285</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D73" s="20" t="s">
         <v>67</v>
